--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C7B0B2-D885-4E8B-9D48-26BBB78CA8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE84A6B-73D5-4C70-A3BC-7FE8E81A9CC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>HIVE-COTE 1.0</t>
   </si>
   <si>
-    <t>HICE-COTE 2.0</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>R-STSF</t>
+  </si>
+  <si>
+    <t>HIVE-COTE 2.0</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,37 +617,37 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -676,43 +676,43 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -724,43 +724,43 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -772,43 +772,43 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -820,43 +820,43 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -892,43 +892,43 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -940,43 +940,43 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -988,43 +988,43 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1036,43 +1036,43 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1096,43 +1096,43 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1144,43 +1144,43 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1192,43 +1192,43 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1240,43 +1240,43 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1315,40 +1315,40 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1360,43 +1360,43 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1411,40 +1411,40 @@
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1480,43 +1480,43 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1528,43 +1528,43 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1576,43 +1576,43 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1624,43 +1624,43 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1672,43 +1672,43 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1720,43 +1720,43 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1795,40 +1795,40 @@
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1843,40 +1843,40 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1914,40 +1914,40 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -1962,40 +1962,40 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2034,40 +2034,40 @@
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE84A6B-73D5-4C70-A3BC-7FE8E81A9CC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECAECD1-B9B3-4B0B-962B-E9BCF1BA77FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="50">
   <si>
     <t>Distance Based</t>
   </si>
@@ -158,9 +158,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Proper Documentation</t>
-  </si>
-  <si>
     <t>Feature Based</t>
   </si>
   <si>
@@ -180,13 +177,19 @@
   </si>
   <si>
     <t>HIVE-COTE 2.0</t>
+  </si>
+  <si>
+    <t>Suitable Documentation</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +226,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +256,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,13 +272,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,8 +301,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent3" xfId="4" builtinId="40"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -604,7 +625,7 @@
   <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -681,8 +702,8 @@
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
@@ -702,8 +723,8 @@
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
+      <c r="J3" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -1068,8 +1089,8 @@
       <c r="K11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>7</v>
+      <c r="L11" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>40</v>
@@ -1084,7 +1105,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1096,13 +1117,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
@@ -1122,8 +1143,8 @@
       <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>40</v>
+      <c r="J13" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>16</v>
@@ -1131,8 +1152,8 @@
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>40</v>
+      <c r="M13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1144,7 +1165,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -1170,8 +1191,8 @@
       <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>40</v>
+      <c r="J14" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>16</v>
@@ -1179,8 +1200,8 @@
       <c r="L14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>40</v>
+      <c r="M14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1192,13 +1213,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
@@ -1218,8 +1239,8 @@
       <c r="I15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>40</v>
+      <c r="J15" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>16</v>
@@ -1227,8 +1248,8 @@
       <c r="L15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>40</v>
+      <c r="M15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1240,7 +1261,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
@@ -1266,8 +1287,8 @@
       <c r="I16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>40</v>
+      <c r="J16" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>16</v>
@@ -1275,8 +1296,8 @@
       <c r="L16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>40</v>
+      <c r="M16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1344,8 +1365,8 @@
       <c r="K18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>7</v>
+      <c r="L18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>40</v>
@@ -1360,7 +1381,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>40</v>
@@ -1485,8 +1506,8 @@
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
@@ -1533,8 +1554,8 @@
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
@@ -1581,8 +1602,8 @@
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
+      <c r="C24" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
@@ -1624,7 +1645,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>40</v>
@@ -1845,8 +1866,8 @@
       <c r="B30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>16</v>
@@ -1943,8 +1964,8 @@
       <c r="K32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>7</v>
+      <c r="L32" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>40</v>
@@ -2057,8 +2078,8 @@
       <c r="I35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>40</v>
+      <c r="J35" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>16</v>
@@ -2066,8 +2087,8 @@
       <c r="L35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>40</v>
+      <c r="M35" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2090,7 +2111,6 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECAECD1-B9B3-4B0B-962B-E9BCF1BA77FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B34E444-C3B7-482B-A10A-138DBD2FCB87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="55">
   <si>
     <t>Distance Based</t>
   </si>
@@ -143,9 +143,6 @@
     <t>DrCIF</t>
   </si>
   <si>
-    <t>WEASEL (inc MUSE)</t>
-  </si>
-  <si>
     <t>Parallelised</t>
   </si>
   <si>
@@ -183,6 +180,24 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>WEASEL</t>
+  </si>
+  <si>
+    <t>MUSE</t>
+  </si>
+  <si>
+    <t>Not applicable for the classifier.</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Not present/Unsatisfactory</t>
   </si>
 </sst>
 </file>
@@ -622,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE334DD-AE10-4914-BCE9-70451FC2855F}">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,10 +659,10 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>19</v>
@@ -662,13 +677,13 @@
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -709,22 +724,22 @@
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -757,16 +772,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>16</v>
@@ -805,10 +820,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -829,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -841,7 +856,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -853,22 +868,22 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>16</v>
@@ -877,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -888,21 +903,45 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -912,45 +951,21 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -961,7 +976,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -970,34 +985,34 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>7</v>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1009,7 +1024,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -1018,34 +1033,34 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1057,7 +1072,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -1065,35 +1080,35 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1104,8 +1119,44 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1116,44 +1167,8 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1165,22 +1180,22 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>16</v>
@@ -1189,10 +1204,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>16</v>
@@ -1213,22 +1228,22 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>16</v>
@@ -1237,13 +1252,13 @@
         <v>7</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>7</v>
@@ -1261,34 +1276,34 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>16</v>
@@ -1308,21 +1323,45 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="A17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1332,45 +1371,21 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -1381,43 +1396,43 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1429,43 +1444,43 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1476,21 +1491,45 @@
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1500,45 +1539,21 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1549,34 +1564,34 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>16</v>
@@ -1585,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1597,34 +1612,34 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>16</v>
@@ -1633,7 +1648,7 @@
         <v>7</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1645,43 +1660,43 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1693,43 +1708,43 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1741,7 +1756,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>16</v>
@@ -1753,10 +1768,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>16</v>
@@ -1765,10 +1780,10 @@
         <v>7</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>16</v>
@@ -1777,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1788,21 +1803,45 @@
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="A28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -1812,45 +1851,21 @@
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -1861,7 +1876,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>16</v>
@@ -1873,10 +1888,10 @@
         <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>16</v>
@@ -1885,10 +1900,10 @@
         <v>7</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>16</v>
@@ -1897,7 +1912,7 @@
         <v>7</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1908,20 +1923,45 @@
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -1931,45 +1971,20 @@
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -1980,43 +1995,43 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2027,21 +2042,45 @@
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -2051,45 +2090,21 @@
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -2099,18 +2114,45 @@
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
@@ -2122,6 +2164,18 @@
       <c r="V36" s="8"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -2142,19 +2196,12 @@
       <c r="V38" s="8"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
@@ -2167,8 +2214,12 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -2191,8 +2242,12 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -2215,8 +2270,12 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -2693,6 +2752,21 @@
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
     </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B34E444-C3B7-482B-A10A-138DBD2FCB87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462CE7E1-DA46-4C83-856A-1882ABD1D9B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,8 +1791,8 @@
       <c r="L27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>39</v>
+      <c r="M27" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1827,11 +1827,11 @@
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>39</v>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>16</v>
@@ -1839,8 +1839,8 @@
       <c r="L28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>39</v>
+      <c r="M28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462CE7E1-DA46-4C83-856A-1882ABD1D9B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064A349-0B02-4D70-97D2-12E8DBA7FC24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>MUSE</t>
   </si>
   <si>
-    <t>Not applicable for the classifier.</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Not present/Unsatisfactory</t>
+  </si>
+  <si>
+    <t>Not applicable for the classifier</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2218,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2246,7 +2246,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2274,7 +2274,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B34E444-C3B7-482B-A10A-138DBD2FCB87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468507D-2916-485C-A55B-DB961A1741F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
+    <workbookView xWindow="-27495" yWindow="2820" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier Capabilities" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,8 +843,8 @@
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
+      <c r="M5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1827,11 +1827,11 @@
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>39</v>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>16</v>
@@ -1839,8 +1839,8 @@
       <c r="L28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>39</v>
+      <c r="M28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1947,11 +1947,11 @@
       <c r="H31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>39</v>
+      <c r="I31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>16</v>
@@ -1959,8 +1959,8 @@
       <c r="L31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>39</v>
+      <c r="M31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B34E444-C3B7-482B-A10A-138DBD2FCB87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064A349-0B02-4D70-97D2-12E8DBA7FC24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>MUSE</t>
   </si>
   <si>
-    <t>Not applicable for the classifier.</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Not present/Unsatisfactory</t>
+  </si>
+  <si>
+    <t>Not applicable for the classifier</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,8 +1791,8 @@
       <c r="L27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>39</v>
+      <c r="M27" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1827,11 +1827,11 @@
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>39</v>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>16</v>
@@ -1839,8 +1839,8 @@
       <c r="L28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>39</v>
+      <c r="M28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2200,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2218,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2246,7 +2246,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2274,7 +2274,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064A349-0B02-4D70-97D2-12E8DBA7FC24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468507D-2916-485C-A55B-DB961A1741F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
+    <workbookView xWindow="-27495" yWindow="2820" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier Capabilities" sheetId="1" r:id="rId1"/>
@@ -188,6 +188,9 @@
     <t>MUSE</t>
   </si>
   <si>
+    <t>Not applicable for the classifier.</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -195,9 +198,6 @@
   </si>
   <si>
     <t>Not present/Unsatisfactory</t>
-  </si>
-  <si>
-    <t>Not applicable for the classifier</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,8 +843,8 @@
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
+      <c r="M5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1791,8 +1791,8 @@
       <c r="L27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>16</v>
+      <c r="M27" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1947,11 +1947,11 @@
       <c r="H31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>39</v>
+      <c r="I31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>16</v>
@@ -1959,8 +1959,8 @@
       <c r="L31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>39</v>
+      <c r="M31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2200,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2218,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2246,7 +2246,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2274,7 +2274,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468507D-2916-485C-A55B-DB961A1741F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DD2038-B91C-4F61-B27B-861A310ED0AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27495" yWindow="2820" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier Capabilities" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,11 +1401,11 @@
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>39</v>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>39</v>
@@ -1428,11 +1428,11 @@
       <c r="K19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>39</v>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1446,14 +1446,14 @@
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>39</v>
@@ -1461,26 +1461,26 @@
       <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>39</v>
+      <c r="G20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2000,38 +2000,38 @@
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>39</v>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>39</v>
+      <c r="G33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DD2038-B91C-4F61-B27B-861A310ED0AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B2E6D-ABD4-466F-9952-24754B2015C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
+    <workbookView xWindow="6210" yWindow="1035" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier Capabilities" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE334DD-AE10-4914-BCE9-70451FC2855F}">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,8 +1467,8 @@
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>16</v>
+      <c r="I20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>16</v>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468507D-2916-485C-A55B-DB961A1741F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B2E6D-ABD4-466F-9952-24754B2015C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27495" yWindow="2820" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
+    <workbookView xWindow="6210" yWindow="1035" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier Capabilities" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE334DD-AE10-4914-BCE9-70451FC2855F}">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,11 +1401,11 @@
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>39</v>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>39</v>
@@ -1428,11 +1428,11 @@
       <c r="K19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>39</v>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1446,14 +1446,14 @@
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>39</v>
@@ -1461,26 +1461,26 @@
       <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
+      <c r="G20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>39</v>
+      <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2000,38 +2000,38 @@
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>39</v>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>39</v>
+      <c r="G33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B2E6D-ABD4-466F-9952-24754B2015C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468507D-2916-485C-A55B-DB961A1741F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1035" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
+    <workbookView xWindow="-27495" yWindow="2820" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier Capabilities" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE334DD-AE10-4914-BCE9-70451FC2855F}">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,11 +1401,11 @@
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>39</v>
@@ -1428,11 +1428,11 @@
       <c r="K19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>16</v>
+      <c r="L19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1446,14 +1446,14 @@
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>39</v>
@@ -1461,26 +1461,26 @@
       <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>7</v>
+      <c r="G20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>16</v>
+      <c r="J20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2000,38 +2000,38 @@
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>16</v>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>16</v>
+      <c r="G33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B2E6D-ABD4-466F-9952-24754B2015C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8350D296-2A52-44DF-8964-87BFA4427351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1035" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
+    <workbookView xWindow="-23085" yWindow="2940" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier Capabilities" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE334DD-AE10-4914-BCE9-70451FC2855F}">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +738,8 @@
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>48</v>
+      <c r="J3" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -891,8 +891,8 @@
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>39</v>
+      <c r="M6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -906,8 +906,8 @@
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>48</v>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>48</v>
@@ -939,8 +939,8 @@
       <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>39</v>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1206,8 +1206,8 @@
       <c r="I14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>48</v>
+      <c r="J14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>16</v>
@@ -1254,8 +1254,8 @@
       <c r="I15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>48</v>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>39</v>
@@ -1302,8 +1302,8 @@
       <c r="I16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>48</v>
+      <c r="J16" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>16</v>
@@ -1350,8 +1350,8 @@
       <c r="I17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>48</v>
+      <c r="J17" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>39</v>
@@ -1449,8 +1449,8 @@
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
@@ -1695,8 +1695,8 @@
       <c r="L25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>39</v>
+      <c r="M25" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1791,8 +1791,8 @@
       <c r="L27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>39</v>
+      <c r="M27" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1911,8 +1911,8 @@
       <c r="L30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>39</v>
+      <c r="M30" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2000,8 +2000,8 @@
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>16</v>
@@ -2141,8 +2141,8 @@
       <c r="I36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>48</v>
+      <c r="J36" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>16</v>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8350D296-2A52-44DF-8964-87BFA4427351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB0E658-B5B0-4C5F-BC43-07FB3350FD61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23085" yWindow="2940" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sktime/contrib/classification_checklist.xlsx
+++ b/sktime/contrib/classification_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP Machine Learning\sktime-workshop-boss\sktime\contrib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B2E6D-ABD4-466F-9952-24754B2015C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB0E658-B5B0-4C5F-BC43-07FB3350FD61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1035" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
+    <workbookView xWindow="-23085" yWindow="2940" windowWidth="16395" windowHeight="13155" xr2:uid="{3113605E-04EF-4EF3-A073-EC3617088A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier Capabilities" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE334DD-AE10-4914-BCE9-70451FC2855F}">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +738,8 @@
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>48</v>
+      <c r="J3" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -891,8 +891,8 @@
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>39</v>
+      <c r="M6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -906,8 +906,8 @@
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>48</v>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>48</v>
@@ -939,8 +939,8 @@
       <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>39</v>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1206,8 +1206,8 @@
       <c r="I14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>48</v>
+      <c r="J14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>16</v>
@@ -1254,8 +1254,8 @@
       <c r="I15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>48</v>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>39</v>
@@ -1302,8 +1302,8 @@
       <c r="I16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>48</v>
+      <c r="J16" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>16</v>
@@ -1350,8 +1350,8 @@
       <c r="I17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>48</v>
+      <c r="J17" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>39</v>
@@ -1449,8 +1449,8 @@
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
@@ -1695,8 +1695,8 @@
       <c r="L25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>39</v>
+      <c r="M25" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1791,8 +1791,8 @@
       <c r="L27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>39</v>
+      <c r="M27" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1911,8 +1911,8 @@
       <c r="L30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>39</v>
+      <c r="M30" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2000,8 +2000,8 @@
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>16</v>
@@ -2141,8 +2141,8 @@
       <c r="I36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>48</v>
+      <c r="J36" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>16</v>
